--- a/ESPN sports website/IPL/Lucknow Super Giants/Manish Pandey.xlsx
+++ b/ESPN sports website/IPL/Lucknow Super Giants/Manish Pandey.xlsx
@@ -445,31 +445,31 @@
         <v>Manish Pandey</v>
       </c>
       <c r="C2" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
         <v>6</v>
       </c>
-      <c r="D2" t="str">
-        <v>8</v>
-      </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>75.00</v>
+        <v>83.33</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 19, 2022</v>
+        <v>March 31, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 18 runs</v>
+        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>120.00</v>
+        <v>75.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>March 28, 2022</v>
+        <v>April 19, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
+        <v>RCB won by 18 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Manish Pandey</v>
       </c>
       <c r="C4" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>83.33</v>
+        <v>110.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>March 31, 2022</v>
+        <v>April 04, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
+        <v>Super Giants won by 12 runs</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +585,31 @@
         <v>Manish Pandey</v>
       </c>
       <c r="C6" t="str">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" t="str">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>110.00</v>
+        <v>100.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>April 04, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Giants won by 12 runs</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Manish Pandey</v>
       </c>
       <c r="C7" t="str">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D7" t="str">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <v>1</v>
-      </c>
       <c r="G7" t="str">
-        <v>100.00</v>
+        <v>120.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I7" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>April 24, 2022</v>
+        <v>March 28, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
   </sheetData>
